--- a/data/turnaround_time.xlsx
+++ b/data/turnaround_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491402F3-7D02-48E6-9653-71945AD2FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787841AA-A136-444D-8AE9-5DABE70F1EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3848523F-09D6-43E0-AD39-3AFD4C366CD1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/data/turnaround_time.xlsx
+++ b/data/turnaround_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787841AA-A136-444D-8AE9-5DABE70F1EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCDE6F5-0E72-4405-99C4-A01D1252DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3848523F-09D6-43E0-AD39-3AFD4C366CD1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
